--- a/longevity/present (CCACE, APS)/model_tables.xlsx
+++ b/longevity/present (CCACE, APS)/model_tables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1229179\GitHub\R\longevity\present (CCACE, APS)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diapadion\Documents\GitHub\R\longevity\present (CCACE, APS)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="173">
   <si>
     <t>Predictor</t>
   </si>
@@ -515,33 +515,6 @@
     <t>-0.379</t>
   </si>
   <si>
-    <t>(Intercept)            22.9840896 33.9271331</t>
-  </si>
-  <si>
-    <t>as.factor(sex)1        -5.2343153 -1.3996342</t>
-  </si>
-  <si>
-    <t>as.factor(origin)WILD   1.2597470  5.7938579</t>
-  </si>
-  <si>
-    <t>Dom_CZ                  0.6422816  2.6289740</t>
-  </si>
-  <si>
-    <t>Ext_CZ                 -6.3818808 -3.1038836</t>
-  </si>
-  <si>
-    <t>Con_CZ                 -1.0724585  1.4128868</t>
-  </si>
-  <si>
-    <t>Agr_CZ                  1.6309402  4.1151935</t>
-  </si>
-  <si>
-    <t>Neu_CZ                 -0.2058007  2.0016728</t>
-  </si>
-  <si>
-    <t>Opn_CZ                 -1.4817564  0.7229682</t>
-  </si>
-  <si>
     <t>[22.98,</t>
   </si>
   <si>
@@ -693,6 +666,66 @@
   </si>
   <si>
     <t>1.047</t>
+  </si>
+  <si>
+    <r>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>0.163</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>χ2 = 95.92, df = 9.8, AIC = 1364.417,</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -803,7 +836,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -838,6 +871,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1121,17 +1156,17 @@
   <dimension ref="A1:AD24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" customWidth="1"/>
     <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="3.7109375" customWidth="1"/>
+    <col min="3" max="3" width="3" customWidth="1"/>
     <col min="4" max="4" width="7.140625" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
     <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
@@ -1172,9 +1207,9 @@
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -1188,13 +1223,13 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -1219,20 +1254,20 @@
         <v>17</v>
       </c>
       <c r="F4" s="8"/>
-      <c r="G4" t="s">
-        <v>152</v>
+      <c r="G4" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>142</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
@@ -1252,10 +1287,10 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -1263,9 +1298,7 @@
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
-      <c r="P5" s="17" t="s">
-        <v>120</v>
-      </c>
+      <c r="P5" s="17"/>
       <c r="Q5" s="2"/>
       <c r="W5" s="17" t="s">
         <v>93</v>
@@ -1287,20 +1320,20 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="J6" s="4">
         <v>3.851</v>
@@ -1308,9 +1341,7 @@
       <c r="K6" s="4">
         <v>1.4890000000000001</v>
       </c>
-      <c r="P6" s="17" t="s">
-        <v>121</v>
-      </c>
+      <c r="P6" s="17"/>
       <c r="Q6" s="2"/>
       <c r="W6" s="17" t="s">
         <v>94</v>
@@ -1332,20 +1363,20 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="J7" s="4">
         <v>0.23799999999999999</v>
@@ -1353,9 +1384,7 @@
       <c r="K7" s="4">
         <v>0.65400000000000003</v>
       </c>
-      <c r="P7" s="17" t="s">
-        <v>122</v>
-      </c>
+      <c r="P7" s="17"/>
       <c r="Q7" s="2"/>
       <c r="W7" s="17" t="s">
         <v>95</v>
@@ -1377,30 +1406,28 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="J8" s="4">
+        <v>146</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" s="6">
         <v>0.51400000000000001</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="6">
         <v>0.82199999999999995</v>
       </c>
-      <c r="P8" s="17" t="s">
-        <v>123</v>
-      </c>
+      <c r="P8" s="17"/>
       <c r="Q8" s="2"/>
       <c r="W8" s="17" t="s">
         <v>96</v>
@@ -1422,30 +1449,28 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="J9" s="4">
+        <v>147</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" s="6">
         <v>6.8760000000000003</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="6">
         <v>1.768</v>
       </c>
-      <c r="P9" s="17" t="s">
-        <v>124</v>
-      </c>
+      <c r="P9" s="17"/>
       <c r="Q9" s="2"/>
       <c r="W9" s="17" t="s">
         <v>97</v>
@@ -1467,30 +1492,28 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="4" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="J10" s="4">
         <v>0.93300000000000005</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="P10" s="17" t="s">
-        <v>125</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="P10" s="17"/>
       <c r="Q10" s="2"/>
       <c r="W10" s="17" t="s">
         <v>98</v>
@@ -1512,30 +1535,28 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="J11" s="4">
+        <v>149</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" s="6">
         <v>0.311</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="P11" s="17" t="s">
-        <v>126</v>
-      </c>
+      <c r="K11" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="P11" s="17"/>
       <c r="Q11" s="2"/>
       <c r="W11" s="17" t="s">
         <v>99</v>
@@ -1557,20 +1578,20 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="4" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="J12" s="4">
         <v>0.69399999999999995</v>
@@ -1578,9 +1599,7 @@
       <c r="K12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="P12" s="17" t="s">
-        <v>127</v>
-      </c>
+      <c r="P12" s="17"/>
       <c r="Q12" s="2"/>
       <c r="W12" s="17" t="s">
         <v>100</v>
@@ -1602,30 +1621,28 @@
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="11" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="10" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J13" s="4">
+        <v>159</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" s="10">
         <v>1.167</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="P13" s="17" t="s">
-        <v>128</v>
-      </c>
+      <c r="K13" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="P13" s="17"/>
       <c r="Q13" s="2"/>
       <c r="W13" s="17" t="s">
         <v>101</v>
@@ -1639,7 +1656,9 @@
       <c r="AD13" s="1"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="7" t="s">
+        <v>172</v>
+      </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1661,9 +1680,9 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
+    <row r="15" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1686,10 +1705,8 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
     </row>
-    <row r="16" spans="1:30" ht="18" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>45</v>
-      </c>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1712,9 +1729,7 @@
       <c r="AD16" s="1"/>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>46</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1737,9 +1752,6 @@
       <c r="AD17" s="1"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1761,10 +1773,7 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
     </row>
-    <row r="19" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="s">
-        <v>48</v>
-      </c>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>

--- a/longevity/present (CCACE, APS)/model_tables.xlsx
+++ b/longevity/present (CCACE, APS)/model_tables.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18870" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="174">
   <si>
     <t>Predictor</t>
   </si>
@@ -726,6 +727,9 @@
       </rPr>
       <t>χ2 = 95.92, df = 9.8, AIC = 1364.417,</t>
     </r>
+  </si>
+  <si>
+    <t>Accelerated failure time model of personality and demographic characteristics, with age stratification</t>
   </si>
 </sst>
 </file>
@@ -836,7 +840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -873,6 +877,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1155,8 +1162,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,6 +1897,419 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:L16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="20"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="15" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="22" t="s">
+        <v>143</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3.851</v>
+      </c>
+      <c r="K6" s="4">
+        <v>1.4890000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.82199999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" s="6">
+        <v>6.8760000000000003</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1.768</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0.311</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="J13" s="10">
+        <v>1.167</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T24"/>
   <sheetViews>
